--- a/Grafico_Burndown.xlsx
+++ b/Grafico_Burndown.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liedson\OneDrive\Área de Trabalho\PIM\PIM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frede\OneDrive\Área de Trabalho\Faculdad\3° Semestre\PIM III\pastagit\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3040C652-F388-40EA-9B7C-709F3EEC3176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -32,22 +33,22 @@
     <t>Realizado</t>
   </si>
   <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
     <t>Sprint 3</t>
   </si>
   <si>
     <t>Sprint 4</t>
   </si>
+  <si>
+    <t>Sprint 1 10/03 - 17/03</t>
+  </si>
+  <si>
+    <t>Sprint 2 17/03 - 24/03</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,7 +137,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -204,10 +204,10 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Sprint 1</c:v>
+                  <c:v>Sprint 1 10/03 - 17/03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 2</c:v>
+                  <c:v>Sprint 2 17/03 - 24/03</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Sprint 3</c:v>
@@ -278,10 +278,10 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Sprint 1</c:v>
+                  <c:v>Sprint 1 10/03 - 17/03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 2</c:v>
+                  <c:v>Sprint 2 17/03 - 24/03</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Sprint 3</c:v>
@@ -446,7 +446,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1086,7 +1085,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1366,16 +1371,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -1383,9 +1391,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>24</v>
@@ -1394,9 +1402,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>16</v>
@@ -1405,9 +1413,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -1416,9 +1424,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>0</v>

--- a/Grafico_Burndown.xlsx
+++ b/Grafico_Burndown.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liedson\OneDrive\Área de Trabalho\PIM\PIM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\PIM\Chamados\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD9773E-8618-498A-950B-5EAEB824A6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Base Line</t>
   </si>
@@ -32,26 +33,47 @@
     <t>Realizado</t>
   </si>
   <si>
-    <t>Sprint 1</t>
+    <t>Sprint 1 (10/03 - 17/03)</t>
   </si>
   <si>
-    <t>Sprint 2</t>
+    <t>Sprint 2 (17/03 - 24/03)</t>
   </si>
   <si>
-    <t>Sprint 3</t>
+    <t>Sprint 3 (24/03 - 31/03)</t>
   </si>
   <si>
-    <t>Sprint 4</t>
+    <t>Sprint 4 07/04  - 14/04)</t>
+  </si>
+  <si>
+    <t>Sprint 5 (14/04 - 21/04)</t>
+  </si>
+  <si>
+    <t>Sprint 6 (21/04 - 28/04)</t>
+  </si>
+  <si>
+    <t>Sprint 7 (28/04 - 05/04)</t>
+  </si>
+  <si>
+    <t>Sprint 8 (05/04 - 12/05)</t>
+  </si>
+  <si>
+    <t>Sprint 9 (12/05 - 19/05)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -136,7 +158,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -200,40 +221,70 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha1!$B$6:$B$9</c:f>
+              <c:f>Planilha1!$B$6:$B$15</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>Sprint 1</c:v>
+                  <c:v>Sprint 1 (10/03 - 17/03)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 2</c:v>
+                  <c:v>Sprint 2 (17/03 - 24/03)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sprint 3</c:v>
+                  <c:v>Sprint 3 (24/03 - 31/03)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 4</c:v>
+                  <c:v>Sprint 4 07/04  - 14/04)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint 5 (14/04 - 21/04)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 6 (21/04 - 28/04)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sprint 7 (28/04 - 05/04)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sprint 8 (05/04 - 12/05)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sprint 9 (12/05 - 19/05)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$C$6:$C$9</c:f>
+              <c:f>Planilha1!$C$6:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -274,38 +325,56 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha1!$B$6:$B$9</c:f>
+              <c:f>Planilha1!$B$6:$B$15</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>Sprint 1</c:v>
+                  <c:v>Sprint 1 (10/03 - 17/03)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 2</c:v>
+                  <c:v>Sprint 2 (17/03 - 24/03)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sprint 3</c:v>
+                  <c:v>Sprint 3 (24/03 - 31/03)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 4</c:v>
+                  <c:v>Sprint 4 07/04  - 14/04)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint 5 (14/04 - 21/04)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 6 (21/04 - 28/04)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sprint 7 (28/04 - 05/04)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sprint 8 (05/04 - 12/05)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sprint 9 (12/05 - 19/05)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$D$6:$D$9</c:f>
+              <c:f>Planilha1!$D$6:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -446,7 +515,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1075,18 +1143,24 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1366,14 +1440,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B5:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="26.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
@@ -1388,10 +1465,10 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -1399,10 +1476,10 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -1410,10 +1487,10 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
@@ -1421,11 +1498,56 @@
         <v>5</v>
       </c>
       <c r="C9">
+        <v>55</v>
+      </c>
+      <c r="D9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Grafico_Burndown.xlsx
+++ b/Grafico_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\PIM\Chamados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD9773E-8618-498A-950B-5EAEB824A6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676AB153-224D-4CA7-A730-D4F1F3F05BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,7 +371,7 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>45</c:v>
@@ -1444,7 +1444,7 @@
   <dimension ref="B5:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1490,7 +1490,7 @@
         <v>66</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">

--- a/Grafico_Burndown.xlsx
+++ b/Grafico_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\PIM\Chamados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676AB153-224D-4CA7-A730-D4F1F3F05BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DB7009-5D85-441F-BF91-E2C198802BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -374,7 +374,7 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1444,7 +1444,7 @@
   <dimension ref="B5:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1501,7 +1501,7 @@
         <v>55</v>
       </c>
       <c r="D9">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">

--- a/Grafico_Burndown.xlsx
+++ b/Grafico_Burndown.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\PIM\Chamados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DB7009-5D85-441F-BF91-E2C198802BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8472"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -63,7 +62,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,6 +157,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -374,7 +374,13 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -515,6 +521,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1440,11 +1447,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1501,7 +1508,7 @@
         <v>55</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -1511,6 +1518,9 @@
       <c r="C10">
         <v>44</v>
       </c>
+      <c r="D10">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
@@ -1518,6 +1528,9 @@
       </c>
       <c r="C11">
         <v>33</v>
+      </c>
+      <c r="D11">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">

--- a/Grafico_Burndown.xlsx
+++ b/Grafico_Burndown.xlsx
@@ -381,6 +381,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1451,7 +1454,7 @@
   <dimension ref="B5:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1540,6 +1543,9 @@
       <c r="C12">
         <v>22</v>
       </c>
+      <c r="D12">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
